--- a/muban/用户信息.xlsx
+++ b/muban/用户信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>账号名称</t>
   </si>
@@ -43,7 +43,7 @@
     <t>班级</t>
   </si>
   <si>
-    <t>admin1</t>
+    <t>admin1222</t>
   </si>
   <si>
     <t>admin123</t>
@@ -61,6 +61,9 @@
     <t>启用</t>
   </si>
   <si>
+    <t>teacher11234</t>
+  </si>
+  <si>
     <t>teacher11</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
     <t>男</t>
   </si>
   <si>
+    <t>adminOther34</t>
+  </si>
+  <si>
     <t>adminOther</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>不启用</t>
   </si>
   <si>
+    <t>teacher1234</t>
+  </si>
+  <si>
     <t>teacher12</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>女</t>
   </si>
   <si>
+    <t>student1145</t>
+  </si>
+  <si>
     <t>student11</t>
   </si>
   <si>
@@ -109,10 +121,16 @@
     <t>软工1501</t>
   </si>
   <si>
+    <t>student1235</t>
+  </si>
+  <si>
     <t>student12</t>
   </si>
   <si>
     <t>刘强</t>
+  </si>
+  <si>
+    <t>student1356</t>
   </si>
   <si>
     <t>student13</t>
@@ -129,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,46 +161,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +247,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +261,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -221,29 +285,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,37 +300,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,48 +314,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,109 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,6 +505,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,39 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,17 +582,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,7 +1084,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1129,22 +1147,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3">
         <v>15233345678</v>
@@ -1152,45 +1170,45 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>15233345678</v>
@@ -1198,89 +1216,89 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1">
         <v>201526810123</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>15275345678</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
         <v>201526810124</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>16875345633</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1">
         <v>201526810223</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>15275345634</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
